--- a/results/EXPERIMENT 1/Main Best Lag.xlsx
+++ b/results/EXPERIMENT 1/Main Best Lag.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadhirahrafidz/Library/Mobile Documents/com~apple~CloudDocs/FYP/fyp/results/EXPERIMENT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1575396-0E83-5F4B-AA1A-82E8DDACF94D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A3409-54B1-D642-8D03-B8DD5BE2EA7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E3254818-4D13-F141-AEA6-D294459329F6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{E3254818-4D13-F141-AEA6-D294459329F6}"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
+    <sheet name="AGUESIA x SKIN RASH" sheetId="2" r:id="rId2"/>
+    <sheet name="AGUESIA x ANOMIA" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparison" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Comparison!$B$3:$B$53</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Comparison!$B$3:$D$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Comparison!$C$3:$C$53</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Comparison!$D$3:$D$53</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Comparison!$C$3:$C$53</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Comparison!$D$3:$D$53</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Comparison!$B$3:$B$53</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Comparison!$B$3:$D$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Comparison!$C$3:$C$53</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Comparison!$D$3:$D$53</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Comparison!$B$3:$B$53</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Comparison!$B$3:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="75">
   <si>
     <t>STATE</t>
   </si>
@@ -248,6 +265,18 @@
   <si>
     <t>Conclusion: There are too many anomalies being predicted in symptom rate</t>
   </si>
+  <si>
+    <t>F SCORE</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>F Score Test</t>
+  </si>
+  <si>
+    <t>Comparing F Scores</t>
+  </si>
 </sst>
 </file>
 
@@ -330,9 +359,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -342,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,11 +437,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -425,6 +489,1852 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$A$3:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>AK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AZ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ID</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>KS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>KY</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LA</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MD</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ME</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MI</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MN</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NH</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NJ</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NM</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NV</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NY</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>OH</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>OK</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>OR</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>RI</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TN</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>TX</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>UT</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>VA</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>VT</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>WA</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>WI</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>WV</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>WY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$B$3:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42857142857142799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42857142857142799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34782608695652101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23529411764705799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.22222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61538461538461497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52173913043478204</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8164-BD4D-BEFB-3B28B37998AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$A$3:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>AK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AZ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ID</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>KS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>KY</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LA</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MD</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ME</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MI</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MN</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NH</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NJ</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NM</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NV</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NY</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>OH</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>OK</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>OR</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>RI</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TN</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>TX</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>UT</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>VA</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>VT</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>WA</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>WI</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>WV</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>WY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$3:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54545454545454497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4074074074074001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34782608695652101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8164-BD4D-BEFB-3B28B37998AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$A$3:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>AK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AZ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ID</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>KS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>KY</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LA</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MD</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ME</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MI</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MN</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MS</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>NC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ND</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>NH</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NJ</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>NM</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NV</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>NY</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>OH</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>OK</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>OR</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>RI</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TN</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>TX</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>UT</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>VA</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>VT</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>WA</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>WI</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>WV</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>WY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$D$3:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47058823529411697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.22222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8164-BD4D-BEFB-3B28B37998AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2037031759"/>
+        <c:axId val="2037341279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2037031759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037341279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2037341279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037031759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CECB98-10D0-AC47-8A5E-804C691A41F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,9 +2636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267DF2FE-5B38-294D-B6D9-5CD20FDBB39B}">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z21" sqref="Z21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,9 +2650,11 @@
     <col min="13" max="13" width="22" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="22"/>
     <col min="19" max="19" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" customWidth="1"/>
-    <col min="27" max="28" width="14.83203125" customWidth="1"/>
+    <col min="26" max="26" width="20.1640625" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -896,7 +2808,7 @@
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="19">
-        <f t="shared" ref="AC3:AC26" si="0">(Z3-AA3)/AA3</f>
+        <f>(Z3-AA3)/AA3</f>
         <v>0.25</v>
       </c>
     </row>
@@ -923,11 +2835,11 @@
         <v>3</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J34" si="1">$N$3-(G4+H4+I4)</f>
+        <f t="shared" ref="J4:J34" si="0">$N$3-(G4+H4+I4)</f>
         <v>287</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L53" si="2">G4+H4</f>
+        <f t="shared" ref="L4:L53" si="1">G4+H4</f>
         <v>10</v>
       </c>
       <c r="M4" s="2">
@@ -952,20 +2864,20 @@
         <v>1</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" ref="W4:W52" si="3">$Y$3-(T4+U4+V4)</f>
+        <f t="shared" ref="W4:W52" si="2">$Y$3-(T4+U4+V4)</f>
         <v>32</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z53" si="4">T4+U4</f>
+        <f t="shared" ref="Z4:Z53" si="3">T4+U4</f>
         <v>3</v>
       </c>
       <c r="AA4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="19">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" ref="AC3:AC26" si="4">(Z4-AA4)/AA4</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -995,7 +2907,7 @@
         <v>249</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="M5" s="2">
@@ -1020,11 +2932,11 @@
         <v>0</v>
       </c>
       <c r="W5" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="2">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="AA5" s="2">
@@ -1032,7 +2944,7 @@
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
     </row>
@@ -1059,11 +2971,11 @@
         <v>16</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="M6" s="2">
@@ -1088,20 +3000,20 @@
         <v>0</v>
       </c>
       <c r="W6" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Z6" s="2">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AA6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="19">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <f t="shared" si="4"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -1131,7 +3043,7 @@
         <v>286</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M7" s="2">
@@ -1143,8 +3055,8 @@
       <c r="P7" s="2">
         <v>0.42857142857142799</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
+      <c r="S7" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1156,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="W7" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z7" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="19"/>
@@ -1192,11 +3104,11 @@
         <v>5</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M8" s="2">
@@ -1221,20 +3133,20 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -1264,7 +3176,7 @@
         <v>230</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="M9" s="2">
@@ -1289,20 +3201,20 @@
         <v>3</v>
       </c>
       <c r="W9" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Z9" s="2">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="19">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -1328,11 +3240,11 @@
         <v>6</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="M10" s="2">
@@ -1357,11 +3269,11 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA10" s="2">
@@ -1369,7 +3281,7 @@
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -1396,11 +3308,11 @@
         <v>4</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="M11" s="2">
@@ -1425,20 +3337,20 @@
         <v>1</v>
       </c>
       <c r="W11" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z11" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="19">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1464,11 +3376,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="M12" s="2">
@@ -1493,20 +3405,20 @@
         <v>0</v>
       </c>
       <c r="W12" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Z12" s="2">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Z12" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="19" t="e">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -1532,11 +3444,11 @@
         <v>9</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M13" s="2">
@@ -1561,20 +3473,20 @@
         <v>0</v>
       </c>
       <c r="W13" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Z13" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="19">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -1600,11 +3512,11 @@
         <v>8</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>267</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="M14" s="2">
@@ -1616,8 +3528,8 @@
       <c r="P14" s="2">
         <v>0.42857142857142799</v>
       </c>
-      <c r="S14" s="2">
-        <v>0</v>
+      <c r="S14" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
@@ -1629,15 +3541,15 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z14" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="19"/>
@@ -1665,11 +3577,11 @@
         <v>7</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="M15" s="2">
@@ -1694,20 +3606,20 @@
         <v>1</v>
       </c>
       <c r="W15" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="19">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -1733,11 +3645,11 @@
         <v>3</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>283</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M16" s="2">
@@ -1762,20 +3674,20 @@
         <v>2</v>
       </c>
       <c r="W16" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="19">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -1801,11 +3713,11 @@
         <v>9</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M17" s="2">
@@ -1817,8 +3729,8 @@
       <c r="P17" s="2">
         <v>0.47058823529411697</v>
       </c>
-      <c r="S17" s="2">
-        <v>0</v>
+      <c r="S17" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -1830,11 +3742,11 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Z17" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA17" s="2">
@@ -1866,11 +3778,11 @@
         <v>11</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>269</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M18" s="2">
@@ -1895,20 +3807,20 @@
         <v>1</v>
       </c>
       <c r="W18" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Z18" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Z18" s="2">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="19">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -1934,11 +3846,11 @@
         <v>30</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="1"/>
-        <v>219</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="M19" s="2">
@@ -1963,20 +3875,20 @@
         <v>0</v>
       </c>
       <c r="W19" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Z19" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="19">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -2002,11 +3914,11 @@
         <v>6</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="M20" s="2">
@@ -2031,11 +3943,11 @@
         <v>1</v>
       </c>
       <c r="W20" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Z20" s="2">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA20" s="2">
@@ -2043,7 +3955,7 @@
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2070,11 +3982,11 @@
         <v>14</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="M21" s="2">
@@ -2099,11 +4011,11 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Z21" s="2">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="AA21" s="2">
@@ -2111,7 +4023,7 @@
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
     </row>
@@ -2138,11 +4050,11 @@
         <v>3</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>281</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M22" s="2">
@@ -2154,8 +4066,8 @@
       <c r="P22" s="2">
         <v>0.4</v>
       </c>
-      <c r="S22" s="2">
-        <v>0</v>
+      <c r="S22" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -2167,11 +4079,11 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="Z22" s="2">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="Z22" s="2">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AA22" s="2">
@@ -2203,11 +4115,11 @@
         <v>8</v>
       </c>
       <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="M23" s="2">
@@ -2232,11 +4144,11 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Z23" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Z23" s="2">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA23" s="2">
@@ -2244,7 +4156,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
     </row>
@@ -2271,11 +4183,11 @@
         <v>3</v>
       </c>
       <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="M24" s="2">
@@ -2300,11 +4212,11 @@
         <v>2</v>
       </c>
       <c r="W24" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z24" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Z24" s="2">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AA24" s="2">
@@ -2312,7 +4224,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2339,11 +4251,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="1"/>
-        <v>243</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="M25" s="2">
@@ -2368,11 +4280,11 @@
         <v>0</v>
       </c>
       <c r="W25" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AA25" s="2">
@@ -2380,7 +4292,7 @@
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -2407,11 +4319,11 @@
         <v>1</v>
       </c>
       <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="M26" s="2">
@@ -2436,22 +4348,22 @@
         <v>0</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AA26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" s="19">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -2477,11 +4389,11 @@
         <v>3</v>
       </c>
       <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="M27" s="2">
@@ -2493,8 +4405,8 @@
       <c r="P27" s="2">
         <v>0.57142857142857095</v>
       </c>
-      <c r="S27" s="2">
-        <v>0</v>
+      <c r="S27" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -2506,11 +4418,11 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="Z27" s="2">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA27" s="2">
@@ -2542,11 +4454,11 @@
         <v>2</v>
       </c>
       <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="M28" s="2">
@@ -2558,8 +4470,8 @@
       <c r="P28" s="2">
         <v>0.77777777777777701</v>
       </c>
-      <c r="S28" s="2">
-        <v>0</v>
+      <c r="S28" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -2571,15 +4483,15 @@
         <v>0</v>
       </c>
       <c r="W28" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="19"/>
@@ -2607,11 +4519,11 @@
         <v>7</v>
       </c>
       <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M29" s="2">
@@ -2636,20 +4548,20 @@
         <v>0</v>
       </c>
       <c r="W29" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z29" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="19">
+      <c r="AC29" s="19" t="e">
         <f t="shared" ref="AC27:AC44" si="5">(Z29-AA29)/AA29</f>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -2675,11 +4587,11 @@
         <v>7</v>
       </c>
       <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M30" s="2">
@@ -2704,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA30" s="2">
@@ -2745,11 +4657,11 @@
         <v>2</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M31" s="2">
@@ -2761,8 +4673,8 @@
       <c r="P31" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="S31" s="2">
-        <v>0</v>
+      <c r="S31" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -2774,15 +4686,15 @@
         <v>0</v>
       </c>
       <c r="W31" s="7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="Z31" s="2">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="19"/>
@@ -2810,11 +4722,11 @@
         <v>1</v>
       </c>
       <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M32" s="2">
@@ -2839,20 +4751,20 @@
         <v>1</v>
       </c>
       <c r="W32" s="7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z32" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Z32" s="2">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -2878,11 +4790,11 @@
         <v>4</v>
       </c>
       <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="M33" s="2">
@@ -2907,20 +4819,20 @@
         <v>1</v>
       </c>
       <c r="W33" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Z33" s="2">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -2946,11 +4858,11 @@
         <v>6</v>
       </c>
       <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M34" s="2">
@@ -2975,11 +4887,11 @@
         <v>2</v>
       </c>
       <c r="W34" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Z34" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="Z34" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA34" s="2">
@@ -3018,7 +4930,7 @@
         <v>286</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M35" s="2">
@@ -3043,20 +4955,20 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Z35" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="Z35" s="2">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="19">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -3086,7 +4998,7 @@
         <v>262</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="M36" s="2">
@@ -3111,11 +5023,11 @@
         <v>0</v>
       </c>
       <c r="W36" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Z36" s="2">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Z36" s="2">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AA36" s="2">
@@ -3154,7 +5066,7 @@
         <v>265</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M37" s="2">
@@ -3179,20 +5091,20 @@
         <v>0</v>
       </c>
       <c r="W37" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z37" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z37" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="19">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -3222,7 +5134,7 @@
         <v>288</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M38" s="2">
@@ -3247,11 +5159,11 @@
         <v>0</v>
       </c>
       <c r="W38" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Z38" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="Z38" s="2">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA38" s="2">
@@ -3290,7 +5202,7 @@
         <v>279</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="M39" s="2">
@@ -3315,22 +5227,22 @@
         <v>0</v>
       </c>
       <c r="W39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
       <c r="Z39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AA39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="19">
+      <c r="AC39" s="19" t="e">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -3360,7 +5272,7 @@
         <v>290</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M40" s="2">
@@ -3385,22 +5297,22 @@
         <v>2</v>
       </c>
       <c r="W40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="19">
         <f t="shared" si="5"/>
-        <v>-0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -3430,7 +5342,7 @@
         <v>285</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M41" s="2">
@@ -3455,20 +5367,20 @@
         <v>1</v>
       </c>
       <c r="W41" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Z41" s="2">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Z41" s="2">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="19">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -3498,7 +5410,7 @@
         <v>276</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="M42" s="2">
@@ -3523,20 +5435,20 @@
         <v>1</v>
       </c>
       <c r="W42" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z42" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z42" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="19">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -3566,7 +5478,7 @@
         <v>283</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M43" s="2">
@@ -3578,8 +5490,8 @@
       <c r="P43" s="2">
         <v>0.35714285714285698</v>
       </c>
-      <c r="S43" s="2">
-        <v>0</v>
+      <c r="S43" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -3591,20 +5503,20 @@
         <v>1</v>
       </c>
       <c r="W43" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z43" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z43" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA43" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="19">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -3634,7 +5546,7 @@
         <v>283</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M44" s="2">
@@ -3659,20 +5571,20 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Z44" s="2">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="Z44" s="2">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -3702,7 +5614,7 @@
         <v>292</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M45" s="2">
@@ -3727,20 +5639,23 @@
         <v>2</v>
       </c>
       <c r="W45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
       <c r="Z45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="2"/>
-      <c r="AC45" s="19"/>
+      <c r="AC45" s="19">
+        <f>(Z45-AA45)/AA45</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -3769,7 +5684,7 @@
         <v>281</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M46" s="2">
@@ -3794,20 +5709,20 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Z46" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Z46" s="2">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" s="19">
         <f>(Z46-AA46)/AA46</f>
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -3837,7 +5752,7 @@
         <v>296</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M47" s="2">
@@ -3862,20 +5777,23 @@
         <v>0</v>
       </c>
       <c r="W47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AA47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="19"/>
+      <c r="AC47" s="19" t="e">
+        <f>(Z47-AA47)/AA47</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -3904,7 +5822,7 @@
         <v>287</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M48" s="2">
@@ -3929,20 +5847,20 @@
         <v>1</v>
       </c>
       <c r="W48" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Z48" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="Z48" s="2">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AA48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="19">
         <f>(Z48-AA48)/AA48</f>
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
@@ -3972,7 +5890,7 @@
         <v>236</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="M49" s="2">
@@ -3997,11 +5915,11 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Z49" s="2">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="Z49" s="2">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AA49" s="2">
@@ -4040,7 +5958,7 @@
         <v>262</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M50" s="2">
@@ -4065,20 +5983,20 @@
         <v>0</v>
       </c>
       <c r="W50" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Z50" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="Z50" s="2">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AA50" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" s="19">
         <f>(Z50-AA50)/AA50</f>
-        <v>1.8333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -4108,7 +6026,7 @@
         <v>284</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M51" s="2">
@@ -4133,20 +6051,23 @@
         <v>2</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
       <c r="Z51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AA51" s="2">
         <v>3</v>
       </c>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="19"/>
+      <c r="AC51" s="19">
+        <f>(Z51-AA51)/AA51</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -4175,7 +6096,7 @@
         <v>276</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M52" s="2">
@@ -4200,20 +6121,20 @@
         <v>1</v>
       </c>
       <c r="W52" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z52" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Z52" s="2">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" s="19">
         <f>(Z52-AA52)/AA52</f>
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -4243,7 +6164,7 @@
         <v>279</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M53" s="2">
@@ -4272,16 +6193,16 @@
         <v>31</v>
       </c>
       <c r="Z53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AA53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="19">
         <f>(Z53-AA53)/AA53</f>
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -4306,9 +6227,10 @@
         <f>AVERAGE(P3:P53)</f>
         <v>0.5577827151563417</v>
       </c>
+      <c r="R54" s="23"/>
       <c r="S54" s="18">
         <f>AVERAGE(S3:S53)</f>
-        <v>0.32558721833582638</v>
+        <v>0.38616158453784061</v>
       </c>
       <c r="T54" s="5">
         <f>AVERAGE(T3:T53)</f>
@@ -4326,7 +6248,10 @@
         <f t="shared" si="7"/>
         <v>28.607843137254903</v>
       </c>
-      <c r="AC54" s="20"/>
+      <c r="AC54" s="20" t="e">
+        <f>AVERAGE(AC3:AC53)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
@@ -4346,10 +6271,3322 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B53">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>$B$54</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5182BB28-E734-544B-9EC4-583124D17565}">
+  <dimension ref="A2:N54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="22"/>
+    <col min="7" max="7" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="C3">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C4">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.45283018867924502</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="C7">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="C8">
+        <v>1.3</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.32258064516128998</v>
+      </c>
+      <c r="C10">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C14">
+        <v>1.8</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.58823529411764597</v>
+      </c>
+      <c r="C15">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C16">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="C17">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.44329896907216398</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7.4074074074074001E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="C20">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.530612244897959</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.34782608695652101</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="C22">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="C23">
+        <v>0.8</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.26086956521739102</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.31578947368421001</v>
+      </c>
+      <c r="C27">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.40677966101694901</v>
+      </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.36842105263157798</v>
+      </c>
+      <c r="C30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.56603773584905603</v>
+      </c>
+      <c r="C33">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.31578947368421001</v>
+      </c>
+      <c r="C35">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="C36">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C37">
+        <v>0.4</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C38">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>12</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="C39">
+        <v>1.6</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.34782608695652101</v>
+      </c>
+      <c r="C41">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="C42">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>3</v>
+      </c>
+      <c r="N42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.437499999999999</v>
+      </c>
+      <c r="C43">
+        <v>1.6</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3</v>
+      </c>
+      <c r="N43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.32558139534883701</v>
+      </c>
+      <c r="C44">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="C45">
+        <v>1.6</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C46">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>4</v>
+      </c>
+      <c r="N46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="C47">
+        <v>1.8</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C48">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="C49">
+        <v>0.9</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>6</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.123711340206185</v>
+      </c>
+      <c r="C50">
+        <v>0.1</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="I50" s="2">
+        <v>3</v>
+      </c>
+      <c r="J50" s="2">
+        <v>22</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C51">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>3</v>
+      </c>
+      <c r="N51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.41176470588235198</v>
+      </c>
+      <c r="C52">
+        <v>1.5</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C53">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f>AVERAGE(B3:B53)</f>
+        <v>0.38604121959071902</v>
+      </c>
+      <c r="G54" s="1">
+        <f>AVERAGE(G3:G53)</f>
+        <v>0.48725028692090583</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B53">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$B$54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43295729-DC90-2340-8D09-D61839879FBC}">
+  <dimension ref="A2:N54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="22"/>
+    <col min="7" max="7" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.32258064516128998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.38888888888888801</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.30232558139534799</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.40816326530612201</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.55882352941176405</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.51162790697674398</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>7</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.527272727272727</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.41509433962264097</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.42352941176470499</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.21052631578947301</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.305084745762711</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.21052631578947301</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.29166666666666602</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.29166666666666602</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.52173913043478204</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.55319148936170204</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.42424242424242398</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.65454545454545399</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>7</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.42424242424242398</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.41176470588235198</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.19354838709677399</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>10</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.35087719298245601</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f>AVERAGE(B3:B53)</f>
+        <v>0.37426931067665153</v>
+      </c>
+      <c r="G54" s="1">
+        <f>AVERAGE(G3:G53)</f>
+        <v>0.46947627535862807</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B53">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$B$54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431B5D66-6482-5E4F-9A82-62DFC859690A}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.374999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.47058823529411697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.4074074074074001E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.34782608695652101</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.34782608695652101</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.23529411764705799</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.52173913043478204</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/EXPERIMENT 1/Main Best Lag.xlsx
+++ b/results/EXPERIMENT 1/Main Best Lag.xlsx
@@ -8,30 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadhirahrafidz/Library/Mobile Documents/com~apple~CloudDocs/FYP/fyp/results/EXPERIMENT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A3409-54B1-D642-8D03-B8DD5BE2EA7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D4F7F-0E8E-6C46-890E-A49061350065}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{E3254818-4D13-F141-AEA6-D294459329F6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E3254818-4D13-F141-AEA6-D294459329F6}"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
-    <sheet name="AGUESIA x SKIN RASH" sheetId="2" r:id="rId2"/>
-    <sheet name="AGUESIA x ANOMIA" sheetId="3" r:id="rId3"/>
-    <sheet name="Comparison" sheetId="4" r:id="rId4"/>
+    <sheet name="Cough x Fever x Skin" sheetId="5" r:id="rId2"/>
+    <sheet name="AGUESIA x SKIN RASH" sheetId="2" r:id="rId3"/>
+    <sheet name="AGUESIA x ANOMIA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Comparison!$B$3:$B$53</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Comparison!$B$3:$D$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Comparison!$C$3:$C$53</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Comparison!$D$3:$D$53</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Comparison!$C$3:$C$53</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Comparison!$D$3:$D$53</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Comparison!$B$3:$B$53</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Comparison!$B$3:$D$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Comparison!$C$3:$C$53</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Comparison!$D$3:$D$53</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Comparison!$B$3:$B$53</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Comparison!$B$3:$D$51</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="76">
   <si>
     <t>STATE</t>
   </si>
@@ -275,18 +261,22 @@
     <t>F Score Test</t>
   </si>
   <si>
-    <t>Comparing F Scores</t>
+    <t>Real Anomalies</t>
+  </si>
+  <si>
+    <t>Total Predicted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,6 +340,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,15 +445,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -505,7 +541,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>True Positive vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Actual Covid-19 Case Anomalies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -515,6 +611,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Covid-19 Anomalies</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -527,7 +626,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$A$3:$A$53</c:f>
+              <c:f>'Cough x Fever x Skin'!$A$3:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
@@ -688,175 +787,178 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$B$3:$B$53</c:f>
+              <c:f>'Cough x Fever x Skin'!$N$3:$N$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.266666666666666</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.374999999999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.59999999999999898</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34782608695652101</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23529411764705799</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.28571428571428498</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.22222222222222199</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.59999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.28571428571428498</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.22222222222222199</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.61538461538461497</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.52173913043478204</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8164-BD4D-BEFB-3B28B37998AD}"/>
+              <c16:uniqueId val="{00000000-5ECF-234C-8391-6B1087CA259B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>True Positives</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -869,7 +971,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$A$3:$A$53</c:f>
+              <c:f>'Cough x Fever x Skin'!$A$3:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
@@ -1030,78 +1132,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$3:$C$53</c:f>
+              <c:f>'Cough x Fever x Skin'!$I$3:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54545454545454497</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.749999999999999</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.4074074074074001E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.57142857142857095</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34782608695652101</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59999999999999898</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
@@ -1110,37 +1212,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.57142857142857095</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.4</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.57142857142857095</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -1149,392 +1251,50 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.57142857142857095</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8164-BD4D-BEFB-3B28B37998AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$A$3:$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>AK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AZ</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CO</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CT</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>DC</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DE</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FL</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>GA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>HI</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>IA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ID</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>IL</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>IN</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>KS</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>KY</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>LA</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>MA</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>MD</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ME</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>MI</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>MN</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>MO</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>MS</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>MT</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>NC</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>ND</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NE</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NH</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>NJ</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>NM</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>NV</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>NY</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>OH</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>OK</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>OR</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>PA</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>RI</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>SD</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>TN</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>TX</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>UT</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>VA</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>VT</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>WA</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>WI</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>WV</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>WY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$D$3:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59999999999999898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47058823529411697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44444444444444398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.44444444444444398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.36363636363636298</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.29999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.28571428571428498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.57142857142857095</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.57142857142857095</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.22222222222222199</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.57142857142857095</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8164-BD4D-BEFB-3B28B37998AD}"/>
+              <c16:uniqueId val="{00000002-5ECF-234C-8391-6B1087CA259B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1546,19 +1306,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2037031759"/>
-        <c:axId val="2037341279"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="878380239"/>
+        <c:axId val="890964751"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2037031759"/>
+        <c:axId val="878380239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1579,7 +1340,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1594,7 +1355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2037341279"/>
+        <c:crossAx val="890964751"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1602,7 +1363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2037341279"/>
+        <c:axId val="890964751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,6 +1383,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1653,7 +1469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2037031759"/>
+        <c:crossAx val="878380239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,7 +1482,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1680,7 +1496,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1781,7 +1597,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1889,11 +1705,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1904,11 +1715,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1940,9 +1746,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2300,23 +2103,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CECB98-10D0-AC47-8A5E-804C691A41F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE816334-7D38-CF41-8CC5-8EAD39528316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,23 +2439,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267DF2FE-5B38-294D-B6D9-5CD20FDBB39B}">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="14"/>
     <col min="3" max="4" width="10.83203125" style="6"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" style="22"/>
     <col min="19" max="19" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="20.1640625" customWidth="1"/>
+    <col min="26" max="26" width="25.1640625" customWidth="1"/>
     <col min="27" max="27" width="19.33203125" customWidth="1"/>
     <col min="28" max="28" width="14.83203125" customWidth="1"/>
   </cols>
@@ -2872,12 +2677,12 @@
         <v>3</v>
       </c>
       <c r="AA4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="19">
-        <f t="shared" ref="AC3:AC26" si="4">(Z4-AA4)/AA4</f>
-        <v>2</v>
+        <f t="shared" ref="AC4:AC26" si="4">(Z4-AA4)/AA4</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -3008,12 +2813,12 @@
         <v>11</v>
       </c>
       <c r="AA6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="19">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -3076,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="19"/>
@@ -3141,12 +2946,12 @@
         <v>6</v>
       </c>
       <c r="AA8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="19">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -3209,12 +3014,12 @@
         <v>10</v>
       </c>
       <c r="AA9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="19">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -3345,12 +3150,12 @@
         <v>5</v>
       </c>
       <c r="AA11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="19">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -3413,12 +3218,12 @@
         <v>11</v>
       </c>
       <c r="AA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="19" t="e">
+      <c r="AC12" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -3481,12 +3286,12 @@
         <v>9</v>
       </c>
       <c r="AA13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="19">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -3549,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="AA14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="19"/>
@@ -3614,12 +3419,12 @@
         <v>10</v>
       </c>
       <c r="AA15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="19">
         <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -3682,12 +3487,12 @@
         <v>5</v>
       </c>
       <c r="AA16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="19">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -3815,12 +3620,12 @@
         <v>8</v>
       </c>
       <c r="AA18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="19">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3883,12 +3688,12 @@
         <v>9</v>
       </c>
       <c r="AA19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="19">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -4358,12 +4163,12 @@
         <v>15</v>
       </c>
       <c r="AA26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" s="19">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -4491,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="AA28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="19"/>
@@ -4556,12 +4361,12 @@
         <v>6</v>
       </c>
       <c r="AA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="19" t="e">
-        <f t="shared" ref="AC27:AC44" si="5">(Z29-AA29)/AA29</f>
-        <v>#DIV/0!</v>
+      <c r="AC29" s="19">
+        <f t="shared" ref="AC29:AC44" si="5">(Z29-AA29)/AA29</f>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -4694,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="AA31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="19"/>
@@ -4759,12 +4564,12 @@
         <v>4</v>
       </c>
       <c r="AA32" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="19">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -4827,12 +4632,12 @@
         <v>4</v>
       </c>
       <c r="AA33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="19">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -4963,12 +4768,12 @@
         <v>4</v>
       </c>
       <c r="AA35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -5099,12 +4904,12 @@
         <v>6</v>
       </c>
       <c r="AA37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="19">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -5237,12 +5042,12 @@
         <v>5</v>
       </c>
       <c r="AA39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="19" t="e">
+      <c r="AC39" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -5307,12 +5112,12 @@
         <v>2</v>
       </c>
       <c r="AA40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -5375,12 +5180,12 @@
         <v>6</v>
       </c>
       <c r="AA41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="19">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -5443,12 +5248,12 @@
         <v>5</v>
       </c>
       <c r="AA42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="19">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -5511,12 +5316,12 @@
         <v>5</v>
       </c>
       <c r="AA43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="19">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -5579,12 +5384,12 @@
         <v>2</v>
       </c>
       <c r="AA44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -5649,12 +5454,12 @@
         <v>2</v>
       </c>
       <c r="AA45" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB45" s="2"/>
       <c r="AC45" s="19">
-        <f>(Z45-AA45)/AA45</f>
-        <v>1</v>
+        <f t="shared" ref="AC45:AC53" si="7">(Z45-AA45)/AA45</f>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
@@ -5717,12 +5522,12 @@
         <v>9</v>
       </c>
       <c r="AA46" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" s="19">
-        <f>(Z46-AA46)/AA46</f>
-        <v>0.8</v>
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -5787,12 +5592,12 @@
         <v>3</v>
       </c>
       <c r="AA47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="19" t="e">
-        <f>(Z47-AA47)/AA47</f>
-        <v>#DIV/0!</v>
+      <c r="AC47" s="19">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
@@ -5855,12 +5660,12 @@
         <v>3</v>
       </c>
       <c r="AA48" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="19">
-        <f>(Z48-AA48)/AA48</f>
-        <v>-0.25</v>
+        <f t="shared" si="7"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
@@ -5927,7 +5732,7 @@
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="19">
-        <f>(Z49-AA49)/AA49</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -5991,12 +5796,12 @@
         <v>17</v>
       </c>
       <c r="AA50" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" s="19">
-        <f>(Z50-AA50)/AA50</f>
-        <v>4.666666666666667</v>
+        <f t="shared" si="7"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -6065,7 +5870,7 @@
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="19">
-        <f>(Z51-AA51)/AA51</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -6129,12 +5934,12 @@
         <v>5</v>
       </c>
       <c r="AA52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" s="19">
-        <f>(Z52-AA52)/AA52</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -6197,12 +6002,12 @@
         <v>5</v>
       </c>
       <c r="AA53" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="19">
-        <f>(Z53-AA53)/AA53</f>
-        <v>0.25</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -6241,16 +6046,16 @@
         <v>5.2745098039215685</v>
       </c>
       <c r="V54" s="5">
-        <f t="shared" ref="V54:W54" si="7">AVERAGE(V3:V53)</f>
+        <f t="shared" ref="V54:W54" si="8">AVERAGE(V3:V53)</f>
         <v>0.56862745098039214</v>
       </c>
       <c r="W54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.607843137254903</v>
       </c>
-      <c r="AC54" s="20" t="e">
+      <c r="AC54" s="20">
         <f>AVERAGE(AC3:AC53)</f>
-        <v>#DIV/0!</v>
+        <v>2.6420454545454546</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -6271,7 +6076,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B53">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>$B$54</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6280,11 +6085,1973 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AD540-A94F-FC4C-AE18-9FA185947C94}">
+  <dimension ref="A2:P54"/>
+  <sheetViews>
+    <sheetView topLeftCell="G3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>I3+J3</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="31">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(M3-N3)/N3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.374999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M53" si="0">I4+J4</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="31">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P53" si="1">(M4-N4)/N4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.455696202531645</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N5" s="31">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.51219512195121897</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="31">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.29885057471264298</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="31">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="31">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="31">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="31">
+        <v>3</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="31">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>29</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N17" s="31">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.55813953488372003</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.32472324723247198</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>29</v>
+      </c>
+      <c r="G19" s="28">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.52173913043478204</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>24</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N21" s="31">
+        <v>4</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.51428571428571401</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N24" s="31">
+        <v>4</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.248587570621468</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>25</v>
+      </c>
+      <c r="G25" s="28">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N25" s="31">
+        <v>4</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N26" s="31">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.31578947368421001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.27906976744186002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>21</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N28" s="31">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="28">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N29" s="31">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N30" s="31">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N31" s="31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15</v>
+      </c>
+      <c r="G32" s="28">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N32" s="31">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8</v>
+      </c>
+      <c r="G33" s="28">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N33" s="31">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
+      <c r="G34" s="28">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N34" s="31">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="28">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N35" s="31">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.57627118644067699</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="28">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>11</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N36" s="31">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.54054054054054002</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="28">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N37" s="31">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.249999999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
+        <v>0.15384615384615299</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N38" s="31">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.22857142857142801</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="28">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="31">
+        <v>2</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6</v>
+      </c>
+      <c r="G41" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="31">
+        <v>2</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="28">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I42" s="2">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N42" s="31">
+        <v>4</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16</v>
+      </c>
+      <c r="G43" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N43" s="31">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D44" s="2">
+        <v>13</v>
+      </c>
+      <c r="G44" s="28">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="31">
+        <v>2</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N45" s="31">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2">
+        <v>8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N46" s="31">
+        <v>4</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.78745644599303E-2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="28">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>16</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N47" s="31">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="28">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="31">
+        <v>2</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>19</v>
+      </c>
+      <c r="G49" s="28">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>7</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N49" s="31">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.13793103448275801</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="28">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="I50" s="2">
+        <v>4</v>
+      </c>
+      <c r="J50" s="2">
+        <v>7</v>
+      </c>
+      <c r="K50" s="2">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N50" s="31">
+        <v>6</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>15</v>
+      </c>
+      <c r="G51" s="28">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3</v>
+      </c>
+      <c r="J51" s="2">
+        <v>7</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N51" s="31">
+        <v>3</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17</v>
+      </c>
+      <c r="G52" s="28">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>12</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N52" s="31">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>28</v>
+      </c>
+      <c r="G53" s="28">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2">
+        <v>4</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N53" s="31">
+        <v>4</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="30">
+        <f>AVERAGE(B3:B53)</f>
+        <v>0.39932407305202455</v>
+      </c>
+      <c r="C54" s="27">
+        <f t="shared" ref="C54:D54" si="2">AVERAGE(C3:C53)</f>
+        <v>0.64705882352941091</v>
+      </c>
+      <c r="D54" s="27">
+        <f t="shared" si="2"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="G54" s="29">
+        <f>AVERAGE(G3:G53)</f>
+        <v>0.27766277083780944</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(I3:I53)</f>
+        <v>1.411764705882353</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:K54" si="3">AVERAGE(J3:J53)</f>
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="P54" s="2">
+        <f>AVERAGE(P3:P53)</f>
+        <v>3.3370370370370375</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B53">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$B$54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5182BB28-E734-544B-9EC4-583124D17565}">
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6309,7 +8076,7 @@
       <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -6329,10 +8096,10 @@
       <c r="B3" s="2">
         <v>0.45161290322580599</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>29</v>
       </c>
       <c r="G3" s="2">
@@ -6358,10 +8125,10 @@
       <c r="B4" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.8999999999999899</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6387,10 +8154,10 @@
       <c r="B5" s="2">
         <v>0.57142857142857095</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
       <c r="G5" s="2">
@@ -6416,10 +8183,10 @@
       <c r="B6" s="2">
         <v>0.45283018867924502</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>24</v>
       </c>
       <c r="G6" s="2">
@@ -6445,10 +8212,10 @@
       <c r="B7" s="2">
         <v>0.35714285714285698</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.19999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -6474,10 +8241,10 @@
       <c r="B8" s="2">
         <v>0.30769230769230699</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>15</v>
       </c>
       <c r="G8" s="2">
@@ -6503,10 +8270,10 @@
       <c r="B9" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>26</v>
       </c>
       <c r="G9" s="2">
@@ -6532,10 +8299,10 @@
       <c r="B10" s="2">
         <v>0.32258064516128998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1.19999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="2">
@@ -6561,10 +8328,10 @@
       <c r="B11" s="2">
         <v>0.55555555555555503</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>26</v>
       </c>
       <c r="G11" s="2">
@@ -6590,10 +8357,10 @@
       <c r="B12" s="2">
         <v>0.27272727272727199</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -6619,10 +8386,10 @@
       <c r="B13" s="2">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -6648,10 +8415,10 @@
       <c r="B14" s="2">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1.8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>29</v>
       </c>
       <c r="G14" s="2">
@@ -6677,10 +8444,10 @@
       <c r="B15" s="2">
         <v>0.58823529411764597</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.69999999999999896</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>19</v>
       </c>
       <c r="G15" s="2">
@@ -6706,10 +8473,10 @@
       <c r="B16" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1.19999999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -6735,10 +8502,10 @@
       <c r="B17" s="2">
         <v>0.46666666666666601</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -6764,10 +8531,10 @@
       <c r="B18" s="2">
         <v>0.51428571428571401</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>28</v>
       </c>
       <c r="G18" s="2">
@@ -6793,10 +8560,10 @@
       <c r="B19" s="2">
         <v>0.44329896907216398</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>30</v>
       </c>
       <c r="G19" s="2">
@@ -6822,10 +8589,10 @@
       <c r="B20" s="2">
         <v>0.48275862068965503</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>22</v>
       </c>
       <c r="G20" s="2">
@@ -6851,10 +8618,10 @@
       <c r="B21" s="2">
         <v>0.530612244897959</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>30</v>
       </c>
       <c r="G21" s="2">
@@ -6880,10 +8647,10 @@
       <c r="B22" s="2">
         <v>0.238095238095238</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.59999999999999898</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -6909,10 +8676,10 @@
       <c r="B23" s="2">
         <v>0.54545454545454497</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -6938,10 +8705,10 @@
       <c r="B24" s="2">
         <v>0.26086956521739102</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>7</v>
       </c>
       <c r="G24" s="2">
@@ -6967,10 +8734,10 @@
       <c r="B25" s="2">
         <v>0.44444444444444398</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>22</v>
       </c>
       <c r="G25" s="2">
@@ -6996,10 +8763,10 @@
       <c r="B26" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>1.3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2">
@@ -7025,10 +8792,10 @@
       <c r="B27" s="2">
         <v>0.31578947368421001</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>1.69999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>29</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -7054,10 +8821,10 @@
       <c r="B28" s="2">
         <v>0.39999999999999902</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>27</v>
       </c>
       <c r="G28" s="2">
@@ -7083,10 +8850,10 @@
       <c r="B29" s="2">
         <v>0.40677966101694901</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0.8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -7112,10 +8879,10 @@
       <c r="B30" s="2">
         <v>0.36842105263157798</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="2">
@@ -7141,10 +8908,10 @@
       <c r="B31" s="2">
         <v>0.2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>1.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -7170,10 +8937,10 @@
       <c r="B32" s="2">
         <v>0.5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>1.8999999999999899</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -7199,10 +8966,10 @@
       <c r="B33" s="2">
         <v>0.56603773584905603</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.69999999999999896</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>8</v>
       </c>
       <c r="G33" s="2">
@@ -7228,10 +8995,10 @@
       <c r="B34" s="2">
         <v>0.499999999999999</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>4</v>
       </c>
       <c r="G34" s="2">
@@ -7257,10 +9024,10 @@
       <c r="B35" s="2">
         <v>0.31578947368421001</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>1.69999999999999</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>29</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -7286,10 +9053,10 @@
       <c r="B36" s="2">
         <v>0.53846153846153799</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.59999999999999898</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="2">
@@ -7315,10 +9082,10 @@
       <c r="B37" s="2">
         <v>0.32</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>0.4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>20</v>
       </c>
       <c r="G37" s="2">
@@ -7344,10 +9111,10 @@
       <c r="B38" s="2">
         <v>0.11764705882352899</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0.29999999999999899</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>9</v>
       </c>
       <c r="G38" s="2">
@@ -7373,10 +9140,10 @@
       <c r="B39" s="2">
         <v>0.42105263157894701</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>1.6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -7402,10 +9169,10 @@
       <c r="B40" s="2">
         <v>0.44444444444444398</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
         <v>9</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -7431,10 +9198,10 @@
       <c r="B41" s="2">
         <v>0.34782608695652101</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>1.19999999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>26</v>
       </c>
       <c r="G41" s="2">
@@ -7460,10 +9227,10 @@
       <c r="B42" s="2">
         <v>0.30769230769230699</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="G42" s="2">
@@ -7489,10 +9256,10 @@
       <c r="B43" s="2">
         <v>0.437499999999999</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>1.6</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="G43" s="2">
@@ -7518,10 +9285,10 @@
       <c r="B44" s="2">
         <v>0.32558139534883701</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -7547,10 +9314,10 @@
       <c r="B45" s="2">
         <v>0.29999999999999899</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>1.6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>30</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -7576,10 +9343,10 @@
       <c r="B46" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>18</v>
       </c>
       <c r="G46" s="2">
@@ -7605,10 +9372,10 @@
       <c r="B47" s="2">
         <v>0.14285714285714199</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>1.8</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -7634,10 +9401,10 @@
       <c r="B48" s="2">
         <v>0.4</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>1.3999999999999899</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>21</v>
       </c>
       <c r="G48" s="2">
@@ -7663,10 +9430,10 @@
       <c r="B49" s="2">
         <v>0.54545454545454497</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>0.9</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>27</v>
       </c>
       <c r="G49" s="2">
@@ -7692,10 +9459,10 @@
       <c r="B50" s="2">
         <v>0.123711340206185</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.1</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>30</v>
       </c>
       <c r="G50" s="2">
@@ -7721,10 +9488,10 @@
       <c r="B51" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>1.8999999999999899</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -7750,10 +9517,10 @@
       <c r="B52" s="2">
         <v>0.41176470588235198</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>1.5</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>0</v>
       </c>
       <c r="G52" s="2">
@@ -7779,10 +9546,10 @@
       <c r="B53" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>1.8999999999999899</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>24</v>
       </c>
       <c r="G53" s="2">
@@ -7806,6 +9573,14 @@
         <f>AVERAGE(B3:B53)</f>
         <v>0.38604121959071902</v>
       </c>
+      <c r="C54" s="27">
+        <f>AVERAGE(C3:C53)</f>
+        <v>1.1490196078431338</v>
+      </c>
+      <c r="D54" s="27">
+        <f>AVERAGE(D3:D53)</f>
+        <v>15.392156862745098</v>
+      </c>
       <c r="G54" s="1">
         <f>AVERAGE(G3:G53)</f>
         <v>0.48725028692090583</v>
@@ -7813,7 +9588,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B53">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>$B$54</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7821,12 +9596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43295729-DC90-2340-8D09-D61839879FBC}">
   <dimension ref="A2:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7857,12 +9632,8 @@
       <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="K2" s="24"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -7871,6 +9642,12 @@
       <c r="B3" s="2">
         <v>0.32258064516128998</v>
       </c>
+      <c r="C3" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29</v>
+      </c>
       <c r="G3" s="2">
         <v>0.5</v>
       </c>
@@ -7890,8 +9667,14 @@
       <c r="B4" s="2">
         <v>0.18181818181818099</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>72</v>
+      <c r="C4" s="2">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -7908,6 +9691,12 @@
       </c>
       <c r="B5" s="2">
         <v>0.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>0.59999999999999898</v>
@@ -7928,8 +9717,14 @@
       <c r="B6" s="2">
         <v>0.45161290322580599</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>72</v>
+      <c r="C6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -7947,8 +9742,14 @@
       <c r="B7" s="2">
         <v>0.38888888888888801</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
+      <c r="C7" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -7966,8 +9767,14 @@
       <c r="B8" s="2">
         <v>0.32</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>72</v>
+      <c r="C8" s="2">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -7985,6 +9792,12 @@
       <c r="B9" s="2">
         <v>0.30232558139534799</v>
       </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="G9" s="2">
         <v>0.47058823529411697</v>
       </c>
@@ -8004,6 +9817,12 @@
       <c r="B10" s="2">
         <v>0.44444444444444398</v>
       </c>
+      <c r="C10" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
       <c r="G10" s="2">
         <v>0.44444444444444398</v>
       </c>
@@ -8023,6 +9842,12 @@
       <c r="B11" s="2">
         <v>0.25925925925925902</v>
       </c>
+      <c r="C11" s="2">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11" s="2">
         <v>0.4</v>
       </c>
@@ -8042,8 +9867,14 @@
       <c r="B12" s="2">
         <v>0.42857142857142799</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -8061,8 +9892,14 @@
       <c r="B13" s="2">
         <v>0.48648648648648601</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>72</v>
+      <c r="C13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -8080,8 +9917,14 @@
       <c r="B14" s="2">
         <v>0.40816326530612201</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>72</v>
+      <c r="C14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -8099,6 +9942,12 @@
       <c r="B15" s="2">
         <v>0.55882352941176405</v>
       </c>
+      <c r="C15" s="2">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
       <c r="G15" s="2">
         <v>0.44444444444444398</v>
       </c>
@@ -8118,6 +9967,12 @@
       <c r="B16" s="2">
         <v>0.32</v>
       </c>
+      <c r="C16" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
       <c r="G16" s="2">
         <v>0.8</v>
       </c>
@@ -8137,8 +9992,14 @@
       <c r="B17" s="2">
         <v>0.51162790697674398</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>72</v>
+      <c r="C17" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -8156,6 +10017,12 @@
       <c r="B18" s="2">
         <v>0.5</v>
       </c>
+      <c r="C18" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D18" s="2">
+        <v>24</v>
+      </c>
       <c r="G18" s="2">
         <v>0.36363636363636298</v>
       </c>
@@ -8175,6 +10042,12 @@
       <c r="B19" s="2">
         <v>0.527272727272727</v>
       </c>
+      <c r="C19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
       <c r="G19" s="2">
         <v>0.5</v>
       </c>
@@ -8194,6 +10067,12 @@
       <c r="B20" s="2">
         <v>0.41509433962264097</v>
       </c>
+      <c r="C20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
       <c r="G20" s="2">
         <v>0.5</v>
       </c>
@@ -8213,6 +10092,12 @@
       <c r="B21" s="2">
         <v>0.42352941176470499</v>
       </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
       <c r="G21" s="2">
         <v>0.29999999999999899</v>
       </c>
@@ -8232,8 +10117,14 @@
       <c r="B22" s="2">
         <v>0.21052631578947301</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>72</v>
+      <c r="C22" s="2">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -8251,6 +10142,12 @@
       <c r="B23" s="2">
         <v>0.512820512820512</v>
       </c>
+      <c r="C23" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>14</v>
+      </c>
       <c r="G23" s="2">
         <v>0.28571428571428498</v>
       </c>
@@ -8270,6 +10167,12 @@
       <c r="B24" s="2">
         <v>0.47058823529411697</v>
       </c>
+      <c r="C24" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
       <c r="G24" s="2">
         <v>0.57142857142857095</v>
       </c>
@@ -8289,6 +10192,12 @@
       <c r="B25" s="2">
         <v>0.305084745762711</v>
       </c>
+      <c r="C25" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
       <c r="G25" s="2">
         <v>0.4</v>
       </c>
@@ -8308,8 +10217,14 @@
       <c r="B26" s="2">
         <v>0.25</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>72</v>
+      <c r="C26" s="2">
+        <v>1.8999999999999899</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -8327,8 +10242,14 @@
       <c r="B27" s="2">
         <v>0.21052631578947301</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>72</v>
+      <c r="C27" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -8346,8 +10267,14 @@
       <c r="B28" s="2">
         <v>0.29166666666666602</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
+      <c r="C28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -8365,8 +10292,14 @@
       <c r="B29" s="2">
         <v>0.29166666666666602</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>72</v>
+      <c r="C29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -8384,6 +10317,12 @@
       <c r="B30" s="2">
         <v>0.52173913043478204</v>
       </c>
+      <c r="C30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>11</v>
+      </c>
       <c r="G30" s="2">
         <v>0.66666666666666596</v>
       </c>
@@ -8403,6 +10342,12 @@
       <c r="B31" s="2">
         <v>0.125</v>
       </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29</v>
+      </c>
       <c r="G31" s="2">
         <v>0.25</v>
       </c>
@@ -8422,8 +10367,14 @@
       <c r="B32" s="2">
         <v>0.5</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>72</v>
+      <c r="C32" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -8441,8 +10392,14 @@
       <c r="B33" s="2">
         <v>0.55319148936170204</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>72</v>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -8460,6 +10417,12 @@
       <c r="B34" s="2">
         <v>0.133333333333333</v>
       </c>
+      <c r="C34" s="2">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
       <c r="G34" s="2">
         <v>0.5</v>
       </c>
@@ -8479,8 +10442,14 @@
       <c r="B35" s="2">
         <v>0.42424242424242398</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>72</v>
+      <c r="C35" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -8498,6 +10467,12 @@
       <c r="B36" s="2">
         <v>0.65454545454545399</v>
       </c>
+      <c r="C36" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
       <c r="G36" s="2">
         <v>0.57142857142857095</v>
       </c>
@@ -8517,6 +10492,12 @@
       <c r="B37" s="2">
         <v>0.30769230769230699</v>
       </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="G37" s="2">
         <v>0.22222222222222199</v>
       </c>
@@ -8536,8 +10517,14 @@
       <c r="B38" s="2">
         <v>0.42105263157894701</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>72</v>
+      <c r="C38" s="2">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -8555,8 +10542,14 @@
       <c r="B39" s="2">
         <v>0.54545454545454497</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>72</v>
+      <c r="C39" s="2">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -8574,8 +10567,14 @@
       <c r="B40" s="2">
         <v>0.29999999999999899</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>72</v>
+      <c r="C40" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -8593,6 +10592,12 @@
       <c r="B41" s="2">
         <v>0.266666666666666</v>
       </c>
+      <c r="C41" s="2">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D41" s="2">
+        <v>26</v>
+      </c>
       <c r="G41" s="2">
         <v>0.66666666666666596</v>
       </c>
@@ -8612,6 +10617,12 @@
       <c r="B42" s="2">
         <v>0.42424242424242398</v>
       </c>
+      <c r="C42" s="2">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
       <c r="G42" s="2">
         <v>0.5</v>
       </c>
@@ -8631,6 +10642,12 @@
       <c r="B43" s="2">
         <v>0.41176470588235198</v>
       </c>
+      <c r="C43" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
       <c r="G43" s="2">
         <v>0.66666666666666596</v>
       </c>
@@ -8650,8 +10667,14 @@
       <c r="B44" s="2">
         <v>0.35294117647058798</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>72</v>
+      <c r="C44" s="2">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -8669,6 +10692,12 @@
       <c r="B45" s="2">
         <v>0.33333333333333298</v>
       </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>18</v>
+      </c>
       <c r="G45" s="2">
         <v>0.4</v>
       </c>
@@ -8688,6 +10717,12 @@
       <c r="B46" s="2">
         <v>0.33333333333333298</v>
       </c>
+      <c r="C46" s="2">
+        <v>1.3999999999999899</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16</v>
+      </c>
       <c r="G46" s="2">
         <v>0.57142857142857095</v>
       </c>
@@ -8707,8 +10742,14 @@
       <c r="B47" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>72</v>
+      <c r="C47" s="2">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>29</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -8726,6 +10767,12 @@
       <c r="B48" s="2">
         <v>0.19354838709677399</v>
       </c>
+      <c r="C48" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>17</v>
+      </c>
       <c r="G48" s="2">
         <v>0.25</v>
       </c>
@@ -8745,8 +10792,14 @@
       <c r="B49" s="2">
         <v>0.46666666666666601</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>72</v>
+      <c r="C49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -8764,6 +10817,12 @@
       <c r="B50" s="2">
         <v>0.25806451612903197</v>
       </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>30</v>
+      </c>
       <c r="G50" s="2">
         <v>0.4</v>
       </c>
@@ -8783,8 +10842,14 @@
       <c r="B51" s="2">
         <v>0.5</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>72</v>
+      <c r="C51" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
@@ -8802,6 +10867,12 @@
       <c r="B52" s="2">
         <v>0.35087719298245601</v>
       </c>
+      <c r="C52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
       <c r="G52" s="2">
         <v>0.4</v>
       </c>
@@ -8820,6 +10891,12 @@
       </c>
       <c r="B53" s="2">
         <v>0.25</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>24</v>
       </c>
       <c r="G53" s="2">
         <v>0.5</v>
@@ -8838,755 +10915,25 @@
         <f>AVERAGE(B3:B53)</f>
         <v>0.37426931067665153</v>
       </c>
+      <c r="C54" s="27">
+        <f>AVERAGE(C3:C53)</f>
+        <v>1.0980392156862715</v>
+      </c>
+      <c r="D54" s="27">
+        <f>AVERAGE(D3:D53)</f>
+        <v>10.372549019607844</v>
+      </c>
       <c r="G54" s="1">
         <f>AVERAGE(G3:G53)</f>
-        <v>0.46947627535862807</v>
+        <v>0.25775168058905068</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B53">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$B$54</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431B5D66-6482-5E4F-9A82-62DFC859690A}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.59999999999999898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.374999999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.47058823529411697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.44444444444444398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.36363636363636298</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.749999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.44444444444444398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.36363636363636298</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.36363636363636298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.36363636363636298</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7.4074074074074001E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.59999999999999898</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.34782608695652101</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.34782608695652101</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.29999999999999899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.36363636363636298</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.59999999999999898</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.23529411764705799</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.59999999999999898</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.22222222222222199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.14285714285714199</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.61538461538461497</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0.52173913043478204</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>